--- a/ML methods results record.xlsx
+++ b/ML methods results record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanz\Downloads\illinois MCSDS\CS410 Text Information System\Project\ClassificationCompetition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0838E27-6389-49E1-B86F-C027E84758C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FFC259-28B7-45B2-B515-586A15FF6C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28FD7A70-D57B-4769-89AA-49ABE9B45AAA}"/>
+    <workbookView xWindow="23892" yWindow="108" windowWidth="20676" windowHeight="12480" xr2:uid="{28FD7A70-D57B-4769-89AA-49ABE9B45AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Random Forests</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN+LSTM+DNN </t>
+  </si>
+  <si>
+    <t>BERT</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -162,9 +170,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Random Forests</c:v>
                 </c:pt>
@@ -173,16 +181,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CNN+LSTM+DNN </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.999</c:v>
                 </c:pt>
@@ -191,6 +205,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80400000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -217,7 +237,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -227,9 +247,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Random Forests</c:v>
                 </c:pt>
@@ -238,16 +258,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CNN+LSTM+DNN </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.72599999999999998</c:v>
                 </c:pt>
@@ -256,6 +282,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.72899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79700000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,7 +314,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -292,9 +324,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Random Forests</c:v>
                 </c:pt>
@@ -303,16 +335,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CNN+LSTM+DNN </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.66400000000000003</c:v>
                 </c:pt>
@@ -321,6 +359,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -371,12 +415,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Machine</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Learning Methods </a:t>
+                  <a:t>Methods </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -656,6 +696,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1207,15 +1248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>506730</xdr:colOff>
+      <xdr:colOff>504824</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>201930</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480059</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1241,6 +1282,62 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06551</cdr:x>
+      <cdr:y>0.27042</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96725</cdr:x>
+      <cdr:y>0.27042</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446118C2-99F0-426B-AD9B-580F6CCDC24D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="358141" y="933450"/>
+          <a:ext cx="4930140" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1540,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3191B1A-A44C-41B0-8F0D-B4988A345076}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,6 +1701,34 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
